--- a/backend/docs/14-33.xlsx
+++ b/backend/docs/14-33.xlsx
@@ -101,7 +101,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -133,63 +133,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -495,64 +523,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:L7"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="3" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" style="3"/>
-    <col min="4" max="4" width="8" style="3" customWidth="1"/>
-    <col min="5" max="6" width="8.7109375" style="3" customWidth="1"/>
-    <col min="7" max="8" width="9.140625" style="3"/>
-    <col min="9" max="9" width="14.42578125" style="3" customWidth="1"/>
-    <col min="10" max="11" width="9.140625" style="3"/>
-    <col min="12" max="12" width="18" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="6.7109375" style="2" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="8" style="2" customWidth="1"/>
+    <col min="5" max="6" width="8.7109375" style="2" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" style="2"/>
+    <col min="9" max="9" width="14.42578125" style="2" customWidth="1"/>
+    <col min="10" max="11" width="9.140625" style="2"/>
+    <col min="12" max="12" width="18" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="11" t="s">
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="11" t="s">
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="11" t="s">
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11" t="s">
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
@@ -570,21 +598,21 @@
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
     </row>
-    <row r="8" spans="1:12" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:12" s="3" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
@@ -603,150 +631,151 @@
       <c r="L9" s="9"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
     </row>
     <row r="13" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
     </row>
     <row r="14" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
     </row>
     <row r="15" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+    </row>
+    <row r="19" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="5" t="s">
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5" t="s">
+      <c r="F19" s="14"/>
+      <c r="G19" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="2" t="s">
+      <c r="H19" s="16"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="13" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="16"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="16"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
+      <c r="K19" s="13"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="6"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="G4:I4"/>
     <mergeCell ref="J11:L11"/>
     <mergeCell ref="A8:L8"/>
     <mergeCell ref="A7:L7"/>
@@ -755,17 +784,6 @@
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="J3:L3"/>
     <mergeCell ref="J4:L4"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/backend/docs/14-33.xlsx
+++ b/backend/docs/14-33.xlsx
@@ -174,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -186,6 +186,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -195,30 +219,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -526,7 +530,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -546,89 +550,89 @@
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10" t="s">
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
     </row>
     <row r="8" spans="1:12" s="3" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
@@ -642,90 +646,102 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
     </row>
     <row r="13" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
     </row>
     <row r="14" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
     </row>
     <row r="15" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
     </row>
     <row r="16" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="14" t="s">
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="15" t="s">
+      <c r="F19" s="9"/>
+      <c r="G19" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H19" s="16"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="13" t="s">
+      <c r="H19" s="11"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K19" s="13"/>
+      <c r="K19" s="7"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
@@ -764,18 +780,7 @@
       <c r="J25" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="G4:I4"/>
+  <mergeCells count="15">
     <mergeCell ref="J11:L11"/>
     <mergeCell ref="A8:L8"/>
     <mergeCell ref="A7:L7"/>
@@ -784,6 +789,13 @@
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="J3:L3"/>
     <mergeCell ref="J4:L4"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:I19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
